--- a/uipath/bid to bid/Dowjones_bidtobid/dowjones.xlsx
+++ b/uipath/bid to bid/Dowjones_bidtobid/dowjones.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0012295352</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>115.755882</x:v>
+        <x:v>114.757799422</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>114.1194024</x:v>
+        <x:v>115.0939052</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>101.4528236</x:v>
+        <x:v>105.3590167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>125.7077328</x:v>
+        <x:v>125.1592555</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>112.5659202</x:v>
+        <x:v>109.1371444</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/uipath/bid to bid/Dowjones_bidtobid/dowjones.xlsx
+++ b/uipath/bid to bid/Dowjones_bidtobid/dowjones.xlsx
@@ -386,7 +386,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>0.0012295352</x:v>
+        <x:v>-0.0030829522</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -411,7 +411,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>114.757799422</x:v>
+        <x:v>114.8988981759</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -436,7 +436,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -461,7 +461,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>115.0939052</x:v>
+        <x:v>114.5139888</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -486,7 +486,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>105.3590167</x:v>
+        <x:v>103.6863286</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -511,7 +511,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>125.1592555</x:v>
+        <x:v>124.1844934</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -536,7 +536,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="n">
-        <x:v>109.1371444</x:v>
+        <x:v>109.5653534</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -561,7 +561,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -586,7 +586,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
